--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/出口交货值.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/出口交货值.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>101.94255</v>
-      </c>
-      <c r="C2" t="n">
-        <v>348.22235</v>
-      </c>
-      <c r="D2" t="n">
-        <v>159.58704</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>66.56695000000001</v>
-      </c>
-      <c r="G2" t="n">
-        <v>285.8401</v>
-      </c>
-      <c r="H2" t="n">
-        <v>43.33109</v>
-      </c>
-      <c r="I2" t="n">
-        <v>112.57629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>5.22871</v>
-      </c>
-      <c r="K2" t="n">
-        <v>118.75922</v>
-      </c>
-      <c r="L2" t="n">
-        <v>6422.95194</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20.48801</v>
-      </c>
-      <c r="N2" t="n">
-        <v>71.28749000000001</v>
-      </c>
-      <c r="O2" t="n">
-        <v>218.35411</v>
-      </c>
-      <c r="P2" t="n">
-        <v>159.38666</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>13.16837</v>
-      </c>
-      <c r="R2" t="n">
-        <v>273.55003</v>
-      </c>
-      <c r="S2" t="n">
-        <v>21.93001</v>
-      </c>
-      <c r="T2" t="n">
-        <v>2.16105</v>
-      </c>
-      <c r="U2" t="n">
-        <v>100.72058</v>
-      </c>
-      <c r="V2" t="n">
-        <v>9.77885</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.7917999999999999</v>
-      </c>
-      <c r="X2" t="n">
-        <v>76.24309</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>49.53053</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1561.29078</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>414.78392</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>192.41792</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>154.53805</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>198.77262</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>767.8568299999999</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.55558</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>24.72934</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>201.2043</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>113.75004</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>12.51088</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>47.65481</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>143.895</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>23.90776</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>289.66962</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.01511</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>123.51203</v>
-      </c>
-      <c r="C3" t="n">
-        <v>435.43968</v>
-      </c>
-      <c r="D3" t="n">
-        <v>292.92713</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>100.10006</v>
-      </c>
-      <c r="G3" t="n">
-        <v>325.41287</v>
-      </c>
-      <c r="H3" t="n">
-        <v>40.6307</v>
-      </c>
-      <c r="I3" t="n">
-        <v>123.24532</v>
-      </c>
-      <c r="J3" t="n">
-        <v>14.25154</v>
-      </c>
-      <c r="K3" t="n">
-        <v>151.22126</v>
-      </c>
-      <c r="L3" t="n">
-        <v>8398.93526</v>
-      </c>
-      <c r="M3" t="n">
-        <v>32.57071</v>
-      </c>
-      <c r="N3" t="n">
-        <v>104.12224</v>
-      </c>
-      <c r="O3" t="n">
-        <v>268.48945</v>
-      </c>
-      <c r="P3" t="n">
-        <v>174.84618</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14.42362</v>
-      </c>
-      <c r="R3" t="n">
-        <v>321.74194</v>
-      </c>
-      <c r="S3" t="n">
-        <v>26.99153</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.78407</v>
-      </c>
-      <c r="U3" t="n">
-        <v>116.20085</v>
-      </c>
-      <c r="V3" t="n">
-        <v>12.55325</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.2301</v>
-      </c>
-      <c r="X3" t="n">
-        <v>113.01388</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>54.39636</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>2632.15609</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>555.08354</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>271.59066</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>158.65827</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>145.93083</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>824.58212</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.51722</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>50.70152</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>232.87518</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>186.49951</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.35004</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>59.69062</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>187.82336</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>30.11823</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>191.78394</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.16142</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>112.32652</v>
-      </c>
-      <c r="C4" t="n">
-        <v>499.53856</v>
-      </c>
-      <c r="D4" t="n">
-        <v>318.46516</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>124.07421</v>
-      </c>
-      <c r="G4" t="n">
-        <v>378.25595</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50.41237</v>
-      </c>
-      <c r="I4" t="n">
-        <v>131.71618</v>
-      </c>
-      <c r="J4" t="n">
-        <v>16.0292</v>
-      </c>
-      <c r="K4" t="n">
-        <v>215.37257</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10453.40297</v>
-      </c>
-      <c r="M4" t="n">
-        <v>42.88555</v>
-      </c>
-      <c r="N4" t="n">
-        <v>126.69589</v>
-      </c>
-      <c r="O4" t="n">
-        <v>291.76343</v>
-      </c>
-      <c r="P4" t="n">
-        <v>192.43002</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>15.21029</v>
-      </c>
-      <c r="R4" t="n">
-        <v>344.08071</v>
-      </c>
-      <c r="S4" t="n">
-        <v>35.09054</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.14446</v>
-      </c>
-      <c r="U4" t="n">
-        <v>127.53396</v>
-      </c>
-      <c r="V4" t="n">
-        <v>16.06552</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.73578</v>
-      </c>
-      <c r="X4" t="n">
-        <v>129.40616</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>54.67827</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>3998.26115</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>661.62862</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>287.11251</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>200.24271</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>139.12565</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>854.20294</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.51776</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>63.89939</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>304.71522</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>201.03284</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>15.81437</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>74.76613999999999</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>191.53788</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>28.90014</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>185.72549</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.33086</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
